--- a/Data/EUDA/Cannabis_detaille/sex_deja_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/sex_deja_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>All.deja.deja.deja</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Males.deja.deja.deja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Males</t>
+          <t>Females.deja.deja.deja</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Not known / missing</t>
+          <t>Not known / missing.deja.deja.deja</t>
         </is>
       </c>
     </row>
@@ -472,18 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>458</v>
       </c>
       <c r="C2" t="n">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="D2" t="n">
-        <v>375</v>
-      </c>
-      <c r="E2" t="n">
         <v>83</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,18 +484,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>1524</v>
       </c>
       <c r="C3" t="n">
-        <v>1524</v>
+        <v>1232</v>
       </c>
       <c r="D3" t="n">
-        <v>1232</v>
+        <v>283</v>
       </c>
       <c r="E3" t="n">
-        <v>283</v>
-      </c>
-      <c r="F3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -514,18 +503,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -536,18 +522,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>190</v>
       </c>
       <c r="C5" t="n">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D5" t="n">
-        <v>169</v>
-      </c>
-      <c r="E5" t="n">
         <v>21</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -556,18 +539,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
-      </c>
-      <c r="E6" t="n">
         <v>8</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -576,18 +556,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>469</v>
       </c>
       <c r="C7" t="n">
-        <v>469</v>
+        <v>365</v>
       </c>
       <c r="D7" t="n">
-        <v>365</v>
-      </c>
-      <c r="E7" t="n">
         <v>104</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,18 +573,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>1473</v>
       </c>
       <c r="C8" t="n">
-        <v>1473</v>
+        <v>1078</v>
       </c>
       <c r="D8" t="n">
-        <v>1078</v>
-      </c>
-      <c r="E8" t="n">
         <v>395</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -616,18 +590,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
-      </c>
-      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -636,18 +607,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -658,18 +626,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>3648</v>
       </c>
       <c r="C11" t="n">
-        <v>3648</v>
+        <v>3055</v>
       </c>
       <c r="D11" t="n">
-        <v>3055</v>
-      </c>
-      <c r="E11" t="n">
         <v>593</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -678,18 +643,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>6921</v>
       </c>
       <c r="C12" t="n">
-        <v>6921</v>
+        <v>5799</v>
       </c>
       <c r="D12" t="n">
-        <v>5799</v>
+        <v>1110</v>
       </c>
       <c r="E12" t="n">
-        <v>1110</v>
-      </c>
-      <c r="F12" t="n">
         <v>12</v>
       </c>
     </row>
@@ -700,18 +662,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>299</v>
       </c>
       <c r="C13" t="n">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="D13" t="n">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
-      </c>
-      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -722,18 +681,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>488</v>
       </c>
       <c r="C14" t="n">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D14" t="n">
-        <v>438</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
-      </c>
-      <c r="F14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -744,18 +700,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>650</v>
       </c>
       <c r="C15" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="D15" t="n">
-        <v>480</v>
+        <v>169</v>
       </c>
       <c r="E15" t="n">
-        <v>169</v>
-      </c>
-      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -766,18 +719,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>3322</v>
       </c>
       <c r="C16" t="n">
-        <v>3322</v>
+        <v>2985</v>
       </c>
       <c r="D16" t="n">
-        <v>2985</v>
+        <v>336</v>
       </c>
       <c r="E16" t="n">
-        <v>336</v>
-      </c>
-      <c r="F16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -788,18 +738,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>76</v>
       </c>
       <c r="C17" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
-      </c>
-      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,18 +757,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
         <v>4</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -830,18 +774,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
-      </c>
-      <c r="E19" t="n">
         <v>8</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -850,18 +791,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>151</v>
       </c>
       <c r="C20" t="n">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D20" t="n">
-        <v>129</v>
-      </c>
-      <c r="E20" t="n">
         <v>22</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -870,18 +808,15 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>1577</v>
       </c>
       <c r="C21" t="n">
-        <v>1577</v>
+        <v>1291</v>
       </c>
       <c r="D21" t="n">
-        <v>1291</v>
+        <v>286</v>
       </c>
       <c r="E21" t="n">
-        <v>286</v>
-      </c>
-      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -892,18 +827,15 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>737</v>
       </c>
       <c r="C22" t="n">
-        <v>737</v>
+        <v>592</v>
       </c>
       <c r="D22" t="n">
-        <v>592</v>
-      </c>
-      <c r="E22" t="n">
         <v>145</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -912,18 +844,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>490</v>
       </c>
       <c r="C23" t="n">
-        <v>490</v>
+        <v>406</v>
       </c>
       <c r="D23" t="n">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
-        <v>79</v>
-      </c>
-      <c r="F23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -934,18 +863,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>342</v>
       </c>
       <c r="C24" t="n">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D24" t="n">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
-      </c>
-      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,18 +882,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>370</v>
       </c>
       <c r="C25" t="n">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="D25" t="n">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
-      </c>
-      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -978,18 +901,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>186</v>
       </c>
       <c r="C26" t="n">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D26" t="n">
-        <v>166</v>
-      </c>
-      <c r="E26" t="n">
         <v>20</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -998,18 +918,15 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1018,18 +935,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>3160</v>
       </c>
       <c r="C28" t="n">
-        <v>3160</v>
+        <v>2562</v>
       </c>
       <c r="D28" t="n">
-        <v>2562</v>
+        <v>595</v>
       </c>
       <c r="E28" t="n">
-        <v>595</v>
-      </c>
-      <c r="F28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1043,7 +957,6 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1052,18 +965,15 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>277</v>
       </c>
       <c r="C30" t="n">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D30" t="n">
-        <v>264</v>
-      </c>
-      <c r="E30" t="n">
         <v>13</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1071,7 +981,6 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1083,7 +992,6 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1095,7 +1003,6 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
